--- a/biology/Botanique/Troène_du_Japon/Troène_du_Japon.xlsx
+++ b/biology/Botanique/Troène_du_Japon/Troène_du_Japon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tro%C3%A8ne_du_Japon</t>
+          <t>Troène_du_Japon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ligustrum japonicum
 Le troène du Japon (Ligustrum japonicum) est une espèce de troène originaire du sud du Japon (Honshū, Shikoku, Kyūshū, Okinawa) et de la Corée.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tro%C3%A8ne_du_Japon</t>
+          <t>Troène_du_Japon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste ou d'un petit arbre pouvant mesurer jusqu'à 6 mètres de hauteur[réf. nécessaire] à l'écorce gris-beige.
 Ses feuilles coriaces persistantes de couleur vert foncé brillant sont opposées et mesurent 5 à 10 cm de long sur 2 à 5 cm de large[réf. nécessaire].
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tro%C3%A8ne_du_Japon</t>
+          <t>Troène_du_Japon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Feuilles et fruits de la variété Ligustrum japonicum var. japonicum
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tro%C3%A8ne_du_Japon</t>
+          <t>Troène_du_Japon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit est utilisé dans les médicaments à base de plantes comme cardiotonique, diurétique, laxatif et traitement tonique[réf. nécessaire]. Cependant le troëne est en attente d'études de non toxicité en Europe et des laboratoires spécialisés en plantes médicinales ont pour le moment renoncé à l'utiliser. Donc il est déconseillé d'en consommer.
 Il est parfois cultivé comme plante ornementale ou pour la composition de haies en Europe et en Amérique du Nord dans les régions à hiver doux car il supporte mal le gel.
